--- a/outputs/technology_catalogue/technology_catalogue_ind_nuts0_nuts3_HC_NH3.xlsx
+++ b/outputs/technology_catalogue/technology_catalogue_ind_nuts0_nuts3_HC_NH3.xlsx
@@ -13696,16 +13696,16 @@
         </is>
       </c>
       <c r="F2">
-        <v>429.0896591122133</v>
+        <v>484.3340994298181</v>
       </c>
       <c r="G2">
-        <v>429.0896591122133</v>
+        <v>484.3340994298181</v>
       </c>
       <c r="H2">
-        <v>429.0896591122133</v>
+        <v>484.3340994298181</v>
       </c>
       <c r="I2">
-        <v>429.0896591122133</v>
+        <v>484.3340994298181</v>
       </c>
     </row>
     <row r="3">
@@ -13735,16 +13735,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>861.5579097691611</v>
+        <v>930.7696352571793</v>
       </c>
       <c r="G3">
-        <v>861.5579097691611</v>
+        <v>930.7696352571793</v>
       </c>
       <c r="H3">
-        <v>861.5579097691611</v>
+        <v>930.7696352571793</v>
       </c>
       <c r="I3">
-        <v>861.5579097691611</v>
+        <v>930.7696352571793</v>
       </c>
     </row>
     <row r="4">
@@ -13774,16 +13774,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>351.3804817276219</v>
+        <v>406.6249220452268</v>
       </c>
       <c r="G4">
-        <v>351.3804817276219</v>
+        <v>406.6249220452268</v>
       </c>
       <c r="H4">
-        <v>351.3804817276219</v>
+        <v>406.6249220452268</v>
       </c>
       <c r="I4">
-        <v>351.3804817276219</v>
+        <v>406.6249220452268</v>
       </c>
     </row>
     <row r="5">
@@ -13813,16 +13813,16 @@
         </is>
       </c>
       <c r="F5">
-        <v>547.3426086860609</v>
+        <v>609.6687080191048</v>
       </c>
       <c r="G5">
-        <v>547.3426086860609</v>
+        <v>609.6687080191048</v>
       </c>
       <c r="H5">
-        <v>547.3426086860609</v>
+        <v>609.6687080191048</v>
       </c>
       <c r="I5">
-        <v>547.3426086860609</v>
+        <v>609.6687080191048</v>
       </c>
     </row>
     <row r="6">
@@ -13969,16 +13969,16 @@
         </is>
       </c>
       <c r="F9">
-        <v>70.66267149764558</v>
+        <v>75.33898589996627</v>
       </c>
       <c r="G9">
-        <v>70.66267149764558</v>
+        <v>75.33898589996627</v>
       </c>
       <c r="H9">
-        <v>70.66267149764558</v>
+        <v>75.33898589996627</v>
       </c>
       <c r="I9">
-        <v>70.66267149764558</v>
+        <v>75.33898589996627</v>
       </c>
     </row>
     <row r="10">
@@ -14086,16 +14086,16 @@
         </is>
       </c>
       <c r="F12">
-        <v>1185.563214155967</v>
+        <v>1201.842336233409</v>
       </c>
       <c r="G12">
-        <v>1185.563214155967</v>
+        <v>1201.842336233409</v>
       </c>
       <c r="H12">
-        <v>1185.563214155967</v>
+        <v>1201.842336233409</v>
       </c>
       <c r="I12">
-        <v>1185.563214155967</v>
+        <v>1201.842336233409</v>
       </c>
     </row>
     <row r="13">
@@ -14125,16 +14125,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>1185.563214155967</v>
+        <v>1195.955406604635</v>
       </c>
       <c r="G13">
-        <v>1185.563214155967</v>
+        <v>1195.955406604635</v>
       </c>
       <c r="H13">
-        <v>1185.563214155967</v>
+        <v>1195.955406604635</v>
       </c>
       <c r="I13">
-        <v>1185.563214155967</v>
+        <v>1195.955406604635</v>
       </c>
     </row>
     <row r="14">
